--- a/System4.xlsx
+++ b/System4.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/purva/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{554B202D-201D-074C-A18B-DC5806CD8646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315988FC-2369-944C-9C22-D5E7E58C3D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{4099231A-A1F8-8746-A465-161E6923F7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$1001</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3422,7 +3425,7 @@
   <dimension ref="A1:A1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A1001"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8436,6 +8439,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A1001" xr:uid="{D0018622-DA86-9445-9F22-ABA02AB43CBB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>